--- a/mylife/sop/目标九宫格/2024_小王同学_目标九宫格.xlsx
+++ b/mylife/sop/目标九宫格/2024_小王同学_目标九宫格.xlsx
@@ -1268,11 +1268,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">反人性
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">todo3：践行:100天在运动中断舍离手机篇.xmind
      </t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1313,6 +1308,31 @@
 2. 线下ppt技术分享一次。
 3. xx俱乐部 top 60%
 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安排一天中可用时间，去完成一个小事情。如果多个事情，舍去，选择其中一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1320,7 +1340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1486,6 +1506,13 @@
       <name val="方正静蕾简体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1595,17 +1622,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2304,7 +2331,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2316,11 +2343,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.950000000000003" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="27">
       <c r="A2" s="2" t="s">
@@ -2333,17 +2360,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="24" customFormat="1" ht="89.25" customHeight="1">
+    <row r="3" spans="1:10" s="22" customFormat="1" ht="89.25" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="25"/>
+        <v>60</v>
+      </c>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="51" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -2356,18 +2383,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="76.5" customHeight="1">
+    <row r="5" spans="1:10" ht="104.25" customHeight="1">
       <c r="A5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="36.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:10" ht="104.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -2380,13 +2407,13 @@
     </row>
     <row r="7" spans="1:10" ht="76.5" customHeight="1">
       <c r="A7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25">
@@ -2397,14 +2424,14 @@
       <c r="E10" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="17.25">
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="47" spans="7:9" ht="17.25">
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2436,11 +2463,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.950000000000003" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="29.1" customHeight="1"/>
     <row r="3" spans="1:10" ht="27">
@@ -2518,14 +2545,14 @@
       <c r="E11" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="17.25">
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="48" spans="7:9" ht="17.25">
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2557,11 +2584,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.950000000000003" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="29.1" customHeight="1"/>
     <row r="3" spans="1:10" ht="27">
@@ -2639,14 +2666,14 @@
       <c r="E11" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="17.25">
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="48" spans="7:9" ht="17.25">
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2678,11 +2705,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.950000000000003" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="29.1" customHeight="1"/>
     <row r="3" spans="1:10" ht="27">
@@ -2761,14 +2788,14 @@
       <c r="E11" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="17.25">
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="48" spans="7:9" ht="17.25">
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2800,11 +2827,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.950000000000003" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="29.1" customHeight="1"/>
     <row r="3" spans="1:10" ht="27">
@@ -2882,14 +2909,14 @@
       <c r="E11" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="17.25">
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="48" spans="7:9" ht="17.25">
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2921,11 +2948,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.950000000000003" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="29.1" customHeight="1"/>
     <row r="3" spans="1:10" ht="27">
@@ -3003,14 +3030,14 @@
       <c r="E11" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="17.25">
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="48" spans="7:9" ht="17.25">
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3042,11 +3069,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.950000000000003" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="29.1" customHeight="1"/>
     <row r="3" spans="1:10" ht="27">
@@ -3124,14 +3151,14 @@
       <c r="E11" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="17.25">
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="48" spans="7:9" ht="17.25">
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3163,11 +3190,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.950000000000003" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="29.1" customHeight="1"/>
     <row r="3" spans="1:10" ht="27">
@@ -3245,14 +3272,14 @@
       <c r="E11" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="17.25">
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="48" spans="7:9" ht="17.25">
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/mylife/sop/目标九宫格/2024_小王同学_目标九宫格.xlsx
+++ b/mylife/sop/目标九宫格/2024_小王同学_目标九宫格.xlsx
@@ -1664,7 +1664,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>2456042</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>46356</xdr:rowOff>
+      <xdr:rowOff>46357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2330,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2360,7 +2360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="22" customFormat="1" ht="89.25" customHeight="1">
+    <row r="3" spans="1:10" s="22" customFormat="1" ht="108.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>59</v>
       </c>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="1:10" ht="51" customHeight="1">
+    <row r="4" spans="1:10" ht="24.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="104.25" customHeight="1">
+    <row r="5" spans="1:10" ht="117.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>62</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="104.25" customHeight="1">
+    <row r="6" spans="1:10" ht="36.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="76.5" customHeight="1">
+    <row r="7" spans="1:10" ht="128.25" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
